--- a/testData/Hana_T721_2.xlsx
+++ b/testData/Hana_T721_2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DAEFC0-B7DB-4E18-8CD3-D44ADC98FCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7195E4E2-4818-46F1-B457-EEAB8C889E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,10 +113,10 @@
     <t>Campbell</t>
   </si>
   <si>
-    <t>2884 US Highway 67, Farmington, MO 63640</t>
-  </si>
-  <si>
     <t>2884 US-67</t>
+  </si>
+  <si>
+    <t>2884 U.S. Highway 67, Farmington, MO 63640</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,10 +602,10 @@
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>29</v>
